--- a/resultado/ExcelTeste.xlsx
+++ b/resultado/ExcelTeste.xlsx
@@ -18858,7 +18858,7 @@
   <dimension ref="A1:H501"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -31918,7 +31918,7 @@
   <dimension ref="A1:F501"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -41970,7 +41970,7 @@
   <dimension ref="A1:E501"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/resultado/ExcelTeste.xlsx
+++ b/resultado/ExcelTeste.xlsx
@@ -14950,10 +14950,10 @@
     <t xml:space="preserve">Status</t>
   </si>
   <si>
-    <t xml:space="preserve">Data de Criacao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data de Confirmacao</t>
+    <t xml:space="preserve">Data de Criação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data de Confirmação</t>
   </si>
   <si>
     <t xml:space="preserve">Data de Cancelamento</t>
@@ -30354,7 +30354,7 @@
   <dimension ref="A1:H501"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -43414,7 +43414,7 @@
   <dimension ref="A1:F501"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -53466,7 +53466,7 @@
   <dimension ref="A1:J501"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
